--- a/api/data/label.xlsx
+++ b/api/data/label.xlsx
@@ -236,15 +236,6 @@
 2. ผลข้างเคียงอื่นๆ ที่พบได้คือ เต้านมคัดตึง มีน้ำนมไหลออกมา สมรรถภาพทางเพศลดลง ควรปรึกษาแพทย์</t>
   </si>
   <si>
-    <t>1. แพทย์อาจใช้ยานี้ด้วยเหตุผลอื่นนอกเหนือจากที่ระบุไว้ หากสงสัยให้ปรึกษาแพทย์หรือเภสัชกร
-2. ควรรับประทานก่อนอาหาร 30 นาที
-3. ควรใช้ยาตามที่ระบุบนฉลากยาอย่างเคร่งครัด ห้ามลดหรือเพิ่มขนาดยาเอง หากมีข้อสงสัยให้สอบถามแพทย์หรือเภสัชกร
-4. ยานี้อาจทำให้น้ำตาลในเลือดต่ำผิดปกติได้ อาจมีอาการหน้ามืด
-เหงื่อแตก รู้สึกหิว คลื่นไส้ ปวดศีรษะ มือสั่น ใจสั่น เป็นต้น โดยเฉพาะเมื่อเลื่อนเวลาหรืองดมื้ออาหาร หรือออกกำลังกายมากเกินปกติ ควรกินอาหาร อมลูกอม หรือดื่มน้ำหวานทันที หากยังไม่ดีขึ้นภายใน 15-30 นาที ควรรีบมาพบแพทย์
-5. หากท่านเป็นโรคตับ โรคไต วางแผนตั้งครรภ์หรือกำลังตั้งครรภ์ หรือให้นมบุตร ควรแจ้งให้แพทย์หรือเภสัชกรทราบ
-6. ควรใช้ควบคู่ไปกับการควบคุมอาหาร และออกกำลังกายอย่างสม่ำเสมอ ภายใต้คำแนะนำของแพทย์เพื่อให้การรักษาได้ผลดี</t>
-  </si>
-  <si>
     <t>1. เป็นยาที่ใช้ควบคุมระดับไขมันในเลือด โดยเฉพาะคอเลสเตอรอล เพื่อป้องกันการเกิดหรือการกลับเป็นซ้ำของโรคหลอดเลือดหัวใจและสมองในคนที่มีความเสี่ยงสูง
 2. หากปวดเมื่อยกล้ามเนื้อโดยไม่ทราบสาเหตุ ควรหยุดยาและกลับมาพบแพทย์ทันที
 3. ควรแจ้งให้แพทย์หรือเภสัชกรทราบ ถ้าท่านได้รับยาอื่นอยู่ โดยเฉพาะยาฆ่าเชื้อแบคทีเรีย ยาฆ่าเชื้อรา ยาต้านไวรัสภูมิคุ้มกันบกพร่อง ยาลดไขมัน เพราะอาจเกิดปฏิกิริยาตีกันแบบรุนแรงกับยานี้
@@ -257,6 +248,14 @@
 2. หากมีอาการถ่ายเหลวตั้งแต่ 3 ครั้งขึ้นไปให้หยุดยาทันที ถ้าอาการไม่ดีขึ้นควรกลับมาพบแพทย์
 3. ควรแจ้งให้แพทย์หรือเภสัชกรทราบ ถ้าท่านได้รับยาอื่นอยู่ โดยเฉพาะยาฆ่าเชื้อแบคทีเรีย (ชนิดอิริโทรมัยซิน คลาริโทรมัยซิน) ยาฆ่าเชื้อรา (ชนิดคีโตโคนาโซน และไอทราโคนาโซน)     ยากลุ่มสแตติน ยาควบคุมความดันเลือด (ชนิดดิลไทอะเซ็ม หรือเวอราปามิล) เพราะอาจเกิดปฏิกิริยาตีกันกับยานี้
 4. หากท่านเป็นโรคตับ โรคไต วางแผนตั้งครรภ์หรือกำลังตั้งครรภ์ หรือให้นมบุตร ควรแจ้งให้แพทย์หรือเภสัชกรทราบ</t>
+  </si>
+  <si>
+    <t>1. แพทย์อาจใช้ยานี้ด้วยเหตุผลอื่นนอกเหนือจากที่ระบุไว้ หากสงสัยให้ปรึกษาแพทย์หรือเภสัชกร
+2. ควรรับประทานก่อนอาหาร 30 นาที
+3. ควรใช้ยาตามที่ระบุบนฉลากยาอย่างเคร่งครัด ห้ามลดหรือเพิ่มขนาดยาเอง หากมีข้อสงสัยให้สอบถามแพทย์หรือเภสัชกร
+4. ยานี้อาจทำให้น้ำตาลในเลือดต่ำผิดปกติได้ อาจมีอาการหน้ามืด เหงื่อแตก รู้สึกหิว คลื่นไส้ ปวดศีรษะ มือสั่น ใจสั่น เป็นต้น โดยเฉพาะเมื่อเลื่อนเวลาหรืองดมื้ออาหาร หรือออกกำลังกายมากเกินปกติ ควรกินอาหาร อมลูกอม หรือดื่มน้ำหวานทันที หากยังไม่ดีขึ้นภายใน 15-30 นาที ควรรีบมาพบแพทย์
+5. หากท่านเป็นโรคตับ โรคไต วางแผนตั้งครรภ์หรือกำลังตั้งครรภ์ หรือให้นมบุตร ควรแจ้งให้แพทย์หรือเภสัชกรทราบ
+6. ควรใช้ควบคู่ไปกับการควบคุมอาหาร และออกกำลังกายอย่างสม่ำเสมอ ภายใต้คำแนะนำของแพทย์เพื่อให้การรักษาได้ผลดี</t>
   </si>
 </sst>
 </file>
@@ -710,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,7 +905,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -917,7 +916,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -932,7 +931,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -947,7 +946,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="5"/>
     </row>

--- a/api/data/label.xlsx
+++ b/api/data/label.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -95,9 +95,6 @@
     <t>Amlodipine</t>
   </si>
   <si>
-    <t>ยารักษาโรคความดันเลือดสูง และใช้รักษาภาวะหัวใจล้มเหลว</t>
-  </si>
-  <si>
     <t>โปรดแจ้งแพทย์หากมีอาการเท้าบวมหลังใช้ยา</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
 4. ยานี้อาจทำให้น้ำตาลในเลือดต่ำผิดปกติได้ อาจมีอาการหน้ามืด เหงื่อแตก รู้สึกหิว คลื่นไส้ ปวดศีรษะ มือสั่น ใจสั่น เป็นต้น โดยเฉพาะเมื่อเลื่อนเวลาหรืองดมื้ออาหาร หรือออกกำลังกายมากเกินปกติ ควรกินอาหาร อมลูกอม หรือดื่มน้ำหวานทันที หากยังไม่ดีขึ้นภายใน 15-30 นาที ควรรีบมาพบแพทย์
 5. หากท่านเป็นโรคตับ โรคไต วางแผนตั้งครรภ์หรือกำลังตั้งครรภ์ หรือให้นมบุตร ควรแจ้งให้แพทย์หรือเภสัชกรทราบ
 6. ควรใช้ควบคู่ไปกับการควบคุมอาหาร และออกกำลังกายอย่างสม่ำเสมอ ภายใต้คำแนะนำของแพทย์เพื่อให้การรักษาได้ผลดี</t>
+  </si>
+  <si>
+    <t>ยารักษาโรคความดันเลือดสูง หรือใช้กับโรคและภาวะอื่นๆ</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,19 +723,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -781,13 +781,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -796,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -811,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -841,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -871,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -880,88 +880,88 @@
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="5"/>
     </row>
